--- a/bank statement generator/bank_statements/statement_6.xlsx
+++ b/bank statement generator/bank_statements/statement_6.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 06.07.2025</t>
+          <t>KONTOSTAND AM 14.07.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,90 +759,74 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>10.07.</t>
+          <t>16.07.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>11.07.</t>
+          <t>17.07.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Bremervörde</t>
+          <t>EBAY MKTPLC EU BTACUT</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>20,41-</t>
+          <t>28,50-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>13.07.</t>
+          <t>18.07.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>14.07.</t>
+          <t>19.07.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL KCDZOA</t>
+          <t>BEITRAG Allianz SE K-66425710</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>44,16-</t>
+          <t>53,43-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>16.07.</t>
+          <t>19.07.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>17.07.</t>
+          <t>20.07.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Gütersloh</t>
+          <t>EBAY MKTPLC EU GOFPHQ</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>28,39-</t>
+          <t>53,32-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>19.07.</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>20.07.</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>BEITRAG Allianz SE K-65230895</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>55,65-</t>
-        </is>
-      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="13" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="8" t="n"/>
@@ -866,7 +850,7 @@
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>148,61-</t>
+          <t>135,25-</t>
         </is>
       </c>
     </row>
@@ -874,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 28.07.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 01.08.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
